--- a/downloads/2023_DRAFT_Points_and_Penaltys_and_Tasks.xlsx
+++ b/downloads/2023_DRAFT_Points_and_Penaltys_and_Tasks.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="130">
   <si>
     <t xml:space="preserve">RoboCup At Work Pointsystem</t>
   </si>
@@ -202,16 +202,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A successful </t>
+      <t xml:space="preserve">-&gt; A successful </t>
     </r>
     <r>
       <rPr>
@@ -220,6 +211,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cavity Placement</t>
     </r>
@@ -229,6 +221,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> = 200 points</t>
     </r>
@@ -245,16 +238,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A successful </t>
+      <t xml:space="preserve">-&gt; A successful </t>
     </r>
     <r>
       <rPr>
@@ -263,6 +247,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Precision Placement</t>
     </r>
@@ -272,6 +257,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> = 300 points</t>
     </r>
@@ -431,15 +417,6 @@
     <t xml:space="preserve">Environment Decisions</t>
   </si>
   <si>
-    <t xml:space="preserve">BTT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Objects
 Decoys</t>
   </si>
@@ -450,12 +427,12 @@
     <t xml:space="preserve">REF</t>
   </si>
   <si>
+    <t xml:space="preserve">Rotation</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Orientation</t>
   </si>
   <si>
@@ -468,9 +445,15 @@
     <t xml:space="preserve">0cm, 5cm, 10cm, 15cm</t>
   </si>
   <si>
+    <t xml:space="preserve">RTT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rotation direction</t>
   </si>
   <si>
+    <t xml:space="preserve">PPT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cavaties Position</t>
   </si>
   <si>
@@ -481,6 +464,9 @@
   </si>
   <si>
     <t xml:space="preserve">WHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTT3</t>
   </si>
   <si>
     <t xml:space="preserve">Decoy numbers</t>
@@ -551,7 +537,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -627,19 +613,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -940,7 +913,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1297,11 +1270,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1313,71 +1286,79 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1385,71 +1366,71 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1457,51 +1438,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1509,23 +1486,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1533,15 +1510,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1549,7 +1526,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1633,8 +1610,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4678,20 +4655,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:AMI29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="89" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="89" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="89" width="10.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="89" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="89" width="10.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="89" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="89" width="10.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="14" style="89" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1023" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,9 +4694,8 @@
       <c r="O1" s="90"/>
       <c r="P1" s="90"/>
       <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="90"/>
       <c r="B2" s="91"/>
       <c r="C2" s="90"/>
@@ -4734,9 +4713,8 @@
       <c r="O2" s="90"/>
       <c r="P2" s="90"/>
       <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="90"/>
       <c r="B3" s="91"/>
       <c r="C3" s="92" t="s">
@@ -4750,17 +4728,16 @@
       <c r="G3" s="92"/>
       <c r="H3" s="92"/>
       <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
+      <c r="J3" s="90"/>
       <c r="K3" s="90"/>
       <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
+      <c r="M3" s="109"/>
       <c r="N3" s="90"/>
       <c r="O3" s="90"/>
       <c r="P3" s="90"/>
       <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="90"/>
       <c r="B4" s="91"/>
       <c r="C4" s="90"/>
@@ -4778,153 +4755,140 @@
       <c r="O4" s="90"/>
       <c r="P4" s="90"/>
       <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90"/>
       <c r="B5" s="94"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="109" t="s">
+      <c r="D5" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="109" t="s">
+      <c r="G5" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="110" t="s">
         <v>60</v>
       </c>
+      <c r="J5" s="90"/>
       <c r="K5" s="90"/>
       <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
+      <c r="M5" s="111"/>
       <c r="N5" s="90"/>
       <c r="O5" s="90"/>
       <c r="P5" s="90"/>
       <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90"/>
       <c r="B6" s="106" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E6" s="99" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G6" s="99" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H6" s="99" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I6" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="99" t="s">
-        <v>98</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J6" s="90"/>
       <c r="K6" s="90"/>
       <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="90"/>
       <c r="O6" s="90"/>
       <c r="P6" s="90"/>
       <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="90"/>
       <c r="B7" s="106"/>
       <c r="C7" s="97" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" s="99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="99" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" s="99" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G7" s="99" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H7" s="99" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I7" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="99" t="s">
-        <v>98</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J7" s="90"/>
       <c r="K7" s="90"/>
       <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="90"/>
       <c r="O7" s="90"/>
       <c r="P7" s="90"/>
       <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="90"/>
       <c r="B8" s="106"/>
       <c r="C8" s="97" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" s="99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H8" s="99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I8" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="99" t="s">
-        <v>98</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J8" s="90"/>
       <c r="K8" s="90"/>
       <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
+      <c r="M8" s="102"/>
       <c r="N8" s="90"/>
       <c r="O8" s="90"/>
       <c r="P8" s="90"/>
       <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="90"/>
       <c r="B9" s="100"/>
       <c r="C9" s="101"/>
@@ -4934,103 +4898,99 @@
       <c r="G9" s="102"/>
       <c r="H9" s="102"/>
       <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
+      <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
+      <c r="M9" s="102"/>
       <c r="N9" s="90"/>
       <c r="O9" s="90"/>
       <c r="P9" s="90"/>
       <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-    </row>
-    <row r="10" s="89" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="90"/>
       <c r="B10" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="112" t="s">
-        <v>104</v>
-      </c>
+      <c r="C10" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="90"/>
       <c r="K10" s="90"/>
       <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
+      <c r="M10" s="115"/>
       <c r="N10" s="90"/>
       <c r="O10" s="90"/>
       <c r="P10" s="90"/>
       <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-    </row>
-    <row r="11" s="89" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMI10" s="89"/>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="90"/>
       <c r="B11" s="100"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="90"/>
       <c r="K11" s="90"/>
       <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
+      <c r="M11" s="115"/>
       <c r="N11" s="90"/>
       <c r="O11" s="90"/>
       <c r="P11" s="90"/>
       <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
+      <c r="AMI11" s="89"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90"/>
       <c r="B12" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
       <c r="I12" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="99" t="s">
-        <v>98</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J12" s="90"/>
       <c r="K12" s="90"/>
       <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
+      <c r="M12" s="102"/>
       <c r="N12" s="90"/>
       <c r="O12" s="90"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-    </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90"/>
       <c r="B13" s="107"/>
       <c r="C13" s="101"/>
@@ -5040,97 +5000,93 @@
       <c r="G13" s="102"/>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
+      <c r="J13" s="90"/>
       <c r="K13" s="90"/>
       <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="M13" s="102"/>
       <c r="N13" s="90"/>
       <c r="O13" s="90"/>
       <c r="P13" s="90"/>
       <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-    </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90"/>
       <c r="B14" s="108" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
+        <v>105</v>
+      </c>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="122"/>
       <c r="I14" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="99" t="s">
-        <v>98</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="M14" s="102"/>
       <c r="N14" s="90"/>
       <c r="O14" s="90"/>
       <c r="P14" s="90"/>
       <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-    </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90"/>
       <c r="B15" s="108"/>
       <c r="C15" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+        <v>106</v>
+      </c>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="125"/>
       <c r="I15" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="99" t="s">
-        <v>98</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J15" s="90"/>
       <c r="K15" s="90"/>
       <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="M15" s="102"/>
       <c r="N15" s="90"/>
       <c r="O15" s="90"/>
       <c r="P15" s="90"/>
       <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-    </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90"/>
       <c r="B16" s="108"/>
       <c r="C16" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
+        <v>107</v>
+      </c>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="128"/>
       <c r="I16" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="99" t="s">
-        <v>65</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J16" s="90"/>
       <c r="K16" s="90"/>
       <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="M16" s="102"/>
       <c r="N16" s="90"/>
       <c r="O16" s="90"/>
       <c r="P16" s="90"/>
       <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90"/>
       <c r="B17" s="91"/>
       <c r="C17" s="90"/>
@@ -5148,9 +5104,8 @@
       <c r="O17" s="90"/>
       <c r="P17" s="90"/>
       <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-    </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90"/>
       <c r="B18" s="91"/>
       <c r="C18" s="90"/>
@@ -5168,9 +5123,8 @@
       <c r="O18" s="90"/>
       <c r="P18" s="90"/>
       <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-    </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90"/>
       <c r="B19" s="91"/>
       <c r="C19" s="90"/>
@@ -5188,9 +5142,8 @@
       <c r="O19" s="90"/>
       <c r="P19" s="90"/>
       <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-    </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90"/>
       <c r="B20" s="91"/>
       <c r="C20" s="90"/>
@@ -5208,9 +5161,8 @@
       <c r="O20" s="90"/>
       <c r="P20" s="90"/>
       <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-    </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90"/>
       <c r="B21" s="91"/>
       <c r="C21" s="90"/>
@@ -5228,9 +5180,8 @@
       <c r="O21" s="90"/>
       <c r="P21" s="90"/>
       <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-    </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90"/>
       <c r="B22" s="91"/>
       <c r="C22" s="90"/>
@@ -5248,9 +5199,8 @@
       <c r="O22" s="90"/>
       <c r="P22" s="90"/>
       <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-    </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90"/>
       <c r="B23" s="91"/>
       <c r="C23" s="90"/>
@@ -5268,9 +5218,8 @@
       <c r="O23" s="90"/>
       <c r="P23" s="90"/>
       <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-    </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90"/>
       <c r="B24" s="91"/>
       <c r="C24" s="90"/>
@@ -5288,9 +5237,8 @@
       <c r="O24" s="90"/>
       <c r="P24" s="90"/>
       <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-    </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="90"/>
       <c r="B25" s="91"/>
       <c r="C25" s="90"/>
@@ -5308,9 +5256,8 @@
       <c r="O25" s="90"/>
       <c r="P25" s="90"/>
       <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-    </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="90"/>
       <c r="B26" s="91"/>
       <c r="C26" s="90"/>
@@ -5328,9 +5275,8 @@
       <c r="O26" s="90"/>
       <c r="P26" s="90"/>
       <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-    </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90"/>
       <c r="B27" s="91"/>
       <c r="C27" s="90"/>
@@ -5348,9 +5294,8 @@
       <c r="O27" s="90"/>
       <c r="P27" s="90"/>
       <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-    </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90"/>
       <c r="B28" s="91"/>
       <c r="C28" s="90"/>
@@ -5368,9 +5313,8 @@
       <c r="O28" s="90"/>
       <c r="P28" s="90"/>
       <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-    </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90"/>
       <c r="B29" s="91"/>
       <c r="C29" s="90"/>
@@ -5388,11 +5332,10 @@
       <c r="O29" s="90"/>
       <c r="P29" s="90"/>
       <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D3:I3"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B14:B16"/>
   </mergeCells>
@@ -5426,729 +5369,729 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="128"/>
+      <c r="A1" s="129"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="129" t="s">
+      <c r="H1" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="130" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="134" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="134" t="n">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F2" s="134" t="n">
         <v>6</v>
       </c>
-      <c r="G1" s="129" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="129" t="s">
+      <c r="G2" s="134" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="134" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="134" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="131"/>
+      <c r="B3" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="124" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="124" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="124" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="124" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" s="138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="131"/>
+      <c r="B4" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="129" t="s">
+      <c r="C4" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="129" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="130" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="131" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="132" t="s">
+      <c r="E4" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="131"/>
+      <c r="B5" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="131"/>
+      <c r="B6" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="141" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="132" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="133" t="n">
+      <c r="D7" s="134" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="134" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="133" t="n">
+      <c r="F7" s="134" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="134" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="133" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" s="133" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" s="133" t="n">
+      <c r="H7" s="134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="131"/>
+      <c r="B8" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="144" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="145" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="131"/>
+      <c r="B9" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="140" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="141" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="133" t="n">
+    </row>
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="146" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="134" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="134" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="146"/>
+      <c r="B11" s="139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="140" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="147" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="132" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="147"/>
+      <c r="B14" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="124" t="n">
         <v>3</v>
       </c>
-      <c r="J2" s="134" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="130"/>
-      <c r="B3" s="135" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="123" t="n">
+      <c r="J14" s="138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="147"/>
+      <c r="B15" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="124" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="147"/>
+      <c r="B16" s="148" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="149" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="149" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="123" t="n">
+      <c r="E16" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="149" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="149" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="123" t="n">
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="123" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="123" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" s="137" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="130"/>
-      <c r="B4" s="135" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="137" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="130"/>
-      <c r="B5" s="135" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="137" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="130"/>
-      <c r="B6" s="138" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="140" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="131" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="133" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="133" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="133" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="133" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" s="133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="134" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="130"/>
-      <c r="B8" s="141" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="142" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="144" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="130"/>
-      <c r="B9" s="138" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="139" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="139" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="139" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="139" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="140" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="145" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="133" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="133" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="145"/>
-      <c r="B11" s="138" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="139" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="139" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="139" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="140" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-    </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="131" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="133" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="134" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="146"/>
-      <c r="B14" s="135" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="123" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="123" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" s="137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="146"/>
-      <c r="B15" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="123" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="146"/>
-      <c r="B16" s="147" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="148" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="148" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="148" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="148" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="149" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="151" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="128" t="n">
+      <c r="D17" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="128" t="n">
+      <c r="E17" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="128" t="n">
+      <c r="F17" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="128" t="n">
+      <c r="G17" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="128" t="n">
+      <c r="H17" s="129" t="n">
         <v>3</v>
       </c>
-      <c r="I17" s="128" t="n">
+      <c r="I17" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="128" t="n">
+      <c r="J17" s="129" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="150"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="128" t="n">
+      <c r="D18" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="128" t="n">
+      <c r="E18" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="128" t="n">
+      <c r="F18" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="128" t="n">
+      <c r="G18" s="129" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="128" t="n">
+      <c r="H18" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="128" t="n">
+      <c r="I18" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="128" t="n">
+      <c r="J18" s="129" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="150"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="128" t="n">
+      <c r="D19" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="128" t="n">
+      <c r="E19" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="128" t="n">
+      <c r="F19" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="128" t="n">
+      <c r="G19" s="129" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="128" t="n">
+      <c r="H19" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="128" t="n">
+      <c r="I19" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="128" t="n">
+      <c r="J19" s="129" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="150"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="128" t="n">
+      <c r="D20" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="128" t="n">
+      <c r="E20" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="128" t="n">
+      <c r="F20" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="128" t="n">
+      <c r="G20" s="129" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="128" t="n">
+      <c r="H20" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="128" t="n">
+      <c r="I20" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="128" t="n">
+      <c r="J20" s="129" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="150"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="128" t="n">
+      <c r="D21" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="128" t="n">
+      <c r="E21" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="128" t="n">
+      <c r="F21" s="129" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="128" t="n">
+      <c r="G21" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="128" t="n">
+      <c r="H21" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="128" t="n">
+      <c r="I21" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="128" t="n">
+      <c r="J21" s="129" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="150"/>
-      <c r="B22" s="151" t="s">
+      <c r="A22" s="151"/>
+      <c r="B22" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="152" t="s">
+      <c r="C22" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="152" t="n">
+      <c r="D22" s="153" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="152" t="n">
+      <c r="E22" s="153" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="152" t="n">
+      <c r="F22" s="153" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="152" t="n">
+      <c r="G22" s="153" t="n">
         <v>3</v>
       </c>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152" t="n">
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="150"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="128" t="s">
-        <v>98</v>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="129" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="150"/>
+      <c r="A24" s="151"/>
       <c r="B24" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="128" t="s">
-        <v>98</v>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="129" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="150"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="128" t="s">
-        <v>99</v>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="129" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="128" t="s">
+      <c r="D27" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="128" t="s">
+      <c r="E27" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="128" t="s">
+      <c r="F27" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="128" t="s">
+      <c r="G27" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="128" t="s">
+      <c r="H27" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="128" t="s">
+      <c r="I27" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="128" t="s">
+      <c r="J27" s="129" t="s">
         <v>129</v>
       </c>
     </row>

--- a/downloads/2023_DRAFT_Points_and_Penaltys_and_Tasks.xlsx
+++ b/downloads/2023_DRAFT_Points_and_Penaltys_and_Tasks.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="133">
   <si>
     <t xml:space="preserve">RoboCup At Work Pointsystem</t>
   </si>
@@ -82,7 +82,10 @@
     <t xml:space="preserve">from RT</t>
   </si>
   <si>
-    <t xml:space="preserve">from arbitrary</t>
+    <t xml:space="preserve">from arbitrary *1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on AC task</t>
   </si>
   <si>
     <t xml:space="preserve">Placement</t>
@@ -106,10 +109,10 @@
     <t xml:space="preserve">in blue container</t>
   </si>
   <si>
-    <t xml:space="preserve">on arbitrary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of possible points without perfect run:</t>
+    <t xml:space="preserve">on arbitrary *1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of  points without arbitrary and perfect run:</t>
   </si>
   <si>
     <t xml:space="preserve">(without time bonus)</t>
@@ -269,10 +272,16 @@
     <t xml:space="preserve">Manip Deduction</t>
   </si>
   <si>
-    <t xml:space="preserve">Fixed 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Interaction</t>
+    <t xml:space="preserve">-50 once</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*1 the number of picks and places from arbitrary surfaces depends on the task generated by the atwork commander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each human Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that is why the arbitrary surface bonus is not considered in the sums</t>
   </si>
   <si>
     <t xml:space="preserve">Cheating</t>
@@ -533,9 +542,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -658,7 +668,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,13 +702,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -913,7 +935,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="163">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -990,31 +1012,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1026,7 +1048,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1046,27 +1068,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1094,7 +1112,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1102,15 +1136,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1122,19 +1148,39 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1142,11 +1188,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1155,6 +1205,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1170,7 +1228,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1182,7 +1240,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,7 +1256,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1206,7 +1264,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1234,7 +1292,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1506,15 +1564,15 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1522,23 +1580,23 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1565,7 +1623,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1604,39 +1662,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="20" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1021" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,25 +2089,25 @@
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="33"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37" t="n">
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35" t="n">
         <f aca="false">Instance!I16</f>
         <v>1</v>
       </c>
-      <c r="N9" s="34" t="n">
+      <c r="N9" s="36" t="n">
         <f aca="false">C9*M9</f>
         <v>100</v>
       </c>
-      <c r="O9" s="38" t="n">
+      <c r="O9" s="37" t="n">
         <f aca="false">Instance!J16</f>
         <v>2</v>
       </c>
-      <c r="P9" s="34" t="n">
+      <c r="P9" s="36" t="n">
         <f aca="false">$C9 * O9</f>
         <v>200</v>
       </c>
@@ -2077,34 +2127,34 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="40" t="n">
+      <c r="C10" s="39" t="n">
         <v>200</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="33"/>
       <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="38" t="n">
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="37" t="n">
         <f aca="false">Instance!I17</f>
         <v>1</v>
       </c>
-      <c r="N10" s="34" t="n">
+      <c r="N10" s="36" t="n">
         <f aca="false">M10*C10</f>
         <v>200</v>
       </c>
-      <c r="O10" s="38" t="n">
+      <c r="O10" s="37" t="n">
         <f aca="false">Instance!J17</f>
         <v>2</v>
       </c>
-      <c r="P10" s="34" t="n">
+      <c r="P10" s="36" t="n">
         <f aca="false">O10*C10</f>
         <v>400</v>
       </c>
@@ -2124,25 +2174,31 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="43" t="n">
+      <c r="C11" s="42" t="n">
         <v>75</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="46"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="49"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="25"/>
       <c r="S11" s="1"/>
@@ -2156,7 +2212,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -2185,9 +2241,9 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17" t="n">
         <v>100</v>
@@ -2256,42 +2312,42 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="31" t="n">
         <v>100</v>
       </c>
       <c r="D14" s="32"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53" t="n">
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="57" t="n">
         <f aca="false">Instance!H20</f>
         <v>1</v>
       </c>
-      <c r="L14" s="54" t="n">
+      <c r="L14" s="58" t="n">
         <f aca="false">$C14 * K14</f>
         <v>100</v>
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="38" t="n">
+      <c r="O14" s="37" t="n">
         <f aca="false">Instance!J20</f>
         <v>2</v>
       </c>
-      <c r="P14" s="34" t="n">
+      <c r="P14" s="36" t="n">
         <f aca="false">$C14 * O14</f>
         <v>200</v>
       </c>
       <c r="Q14" s="1"/>
-      <c r="R14" s="55" t="n">
+      <c r="R14" s="59" t="n">
         <f aca="false">SUM(F14,H14,J14,L14,N14,P14)</f>
         <v>300</v>
       </c>
@@ -2305,40 +2361,40 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51"/>
-      <c r="B15" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="40" t="n">
+      <c r="A15" s="52"/>
+      <c r="B15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="39" t="n">
         <v>100</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="35" t="n">
+      <c r="D15" s="40"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="60" t="n">
         <f aca="false">Instance!H21</f>
         <v>1</v>
       </c>
-      <c r="L15" s="36" t="n">
+      <c r="L15" s="61" t="n">
         <f aca="false">$C15 * K15</f>
         <v>100</v>
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="38" t="n">
+      <c r="O15" s="37" t="n">
         <f aca="false">Instance!J20</f>
         <v>2</v>
       </c>
-      <c r="P15" s="34" t="n">
+      <c r="P15" s="36" t="n">
         <f aca="false">$C15 * O15</f>
         <v>200</v>
       </c>
       <c r="Q15" s="1"/>
-      <c r="R15" s="55" t="n">
+      <c r="R15" s="59" t="n">
         <f aca="false">SUM(F15,H15,J15,L15,N15,P15)</f>
         <v>300</v>
       </c>
@@ -2352,40 +2408,40 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="51"/>
-      <c r="B16" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="40" t="n">
+      <c r="A16" s="52"/>
+      <c r="B16" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="39" t="n">
         <v>50</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="57" t="n">
+      <c r="D16" s="62"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="63" t="n">
         <f aca="false">Instance!H21</f>
         <v>1</v>
       </c>
-      <c r="L16" s="36" t="n">
+      <c r="L16" s="61" t="n">
         <f aca="false">$C16 * K16</f>
         <v>50</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="34"/>
-      <c r="O16" s="58" t="n">
+      <c r="O16" s="64" t="n">
         <f aca="false">Instance!J21</f>
         <v>2</v>
       </c>
-      <c r="P16" s="34" t="n">
+      <c r="P16" s="36" t="n">
         <f aca="false">$C16 * O16</f>
         <v>100</v>
       </c>
       <c r="Q16" s="1"/>
-      <c r="R16" s="55" t="n">
+      <c r="R16" s="59" t="n">
         <f aca="false">SUM(F16,H16,J16,L16,N16,P16)</f>
         <v>150</v>
       </c>
@@ -2399,40 +2455,40 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="51"/>
-      <c r="B17" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="40" t="n">
+      <c r="A17" s="52"/>
+      <c r="B17" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="39" t="n">
         <v>100</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37" t="n">
+      <c r="K17" s="65"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35" t="n">
         <f aca="false">Instance!I22</f>
         <v>1</v>
       </c>
-      <c r="N17" s="34" t="n">
+      <c r="N17" s="36" t="n">
         <f aca="false">C17*M17</f>
         <v>100</v>
       </c>
-      <c r="O17" s="58" t="n">
+      <c r="O17" s="64" t="n">
         <f aca="false">Instance!J22</f>
         <v>2</v>
       </c>
-      <c r="P17" s="34" t="n">
+      <c r="P17" s="36" t="n">
         <f aca="false">$C17 * O17</f>
         <v>200</v>
       </c>
       <c r="Q17" s="1"/>
-      <c r="R17" s="55" t="n">
+      <c r="R17" s="59" t="n">
         <f aca="false">SUM(F17,H17,J17,L17,N17,P17)</f>
         <v>300</v>
       </c>
@@ -2446,40 +2502,40 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51"/>
-      <c r="B18" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="40" t="n">
+      <c r="A18" s="52"/>
+      <c r="B18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="39" t="n">
         <v>100</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="33"/>
       <c r="J18" s="34"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37" t="n">
+      <c r="K18" s="65"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35" t="n">
         <f aca="false">Instance!I23</f>
         <v>1</v>
       </c>
-      <c r="N18" s="34" t="n">
+      <c r="N18" s="36" t="n">
         <f aca="false">C18*M18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="58" t="n">
+      <c r="O18" s="64" t="n">
         <f aca="false">Instance!J23</f>
         <v>2</v>
       </c>
-      <c r="P18" s="34" t="n">
+      <c r="P18" s="36" t="n">
         <f aca="false">$C18 * O18</f>
         <v>200</v>
       </c>
       <c r="Q18" s="1"/>
-      <c r="R18" s="55" t="n">
+      <c r="R18" s="59" t="n">
         <f aca="false">SUM(F18,H18,J18,L18,N18,P18)</f>
         <v>300</v>
       </c>
@@ -2493,26 +2549,32 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="51"/>
-      <c r="B19" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="43" t="n">
+      <c r="A19" s="52"/>
+      <c r="B19" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="42" t="n">
         <v>50</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="46"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="69"/>
+      <c r="M19" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="49"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="25"/>
       <c r="S19" s="1"/>
@@ -2525,7 +2587,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="61"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2582,38 +2644,38 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
-      <c r="B22" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64" t="n">
+      <c r="B22" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73" t="n">
         <f aca="false">SUM(F5:F20)</f>
         <v>900</v>
       </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="54" t="n">
+      <c r="G22" s="74"/>
+      <c r="H22" s="58" t="n">
         <f aca="false">SUM(H5:H20)</f>
         <v>1200</v>
       </c>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67" t="n">
+      <c r="I22" s="75"/>
+      <c r="J22" s="76" t="n">
         <f aca="false">SUM(J5:J20)</f>
         <v>1500</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="54" t="n">
+      <c r="K22" s="74"/>
+      <c r="L22" s="58" t="n">
         <f aca="false">SUM(L5:L20)</f>
         <v>2050</v>
       </c>
-      <c r="M22" s="66"/>
-      <c r="N22" s="67" t="n">
+      <c r="M22" s="75"/>
+      <c r="N22" s="76" t="n">
         <f aca="false">SUM(N5:N20)</f>
         <v>2550</v>
       </c>
-      <c r="O22" s="66"/>
-      <c r="P22" s="64" t="n">
+      <c r="O22" s="75"/>
+      <c r="P22" s="73" t="n">
         <f aca="false">SUM(P5:P20)</f>
         <v>4400</v>
       </c>
@@ -2622,8 +2684,8 @@
         <f aca="false">SUM(F22,H22,J22,L22,N22,P22)</f>
         <v>12600</v>
       </c>
-      <c r="S22" s="68" t="s">
-        <v>29</v>
+      <c r="S22" s="77" t="s">
+        <v>30</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -2635,47 +2697,47 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
-      <c r="B23" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71" t="n">
+      <c r="B23" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80" t="n">
         <f aca="false">F22+F26</f>
         <v>960</v>
       </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="73" t="n">
+      <c r="G23" s="81"/>
+      <c r="H23" s="82" t="n">
         <f aca="false">H22+H26</f>
         <v>1280</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74" t="n">
+      <c r="I23" s="83"/>
+      <c r="J23" s="83" t="n">
         <f aca="false">J22+J26</f>
         <v>1600</v>
       </c>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73" t="n">
+      <c r="K23" s="81"/>
+      <c r="L23" s="82" t="n">
         <f aca="false">L22+L26</f>
         <v>2170</v>
       </c>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74" t="n">
+      <c r="M23" s="83"/>
+      <c r="N23" s="83" t="n">
         <f aca="false">N22+N26</f>
         <v>2690</v>
       </c>
-      <c r="O23" s="74"/>
-      <c r="P23" s="71" t="n">
+      <c r="O23" s="83"/>
+      <c r="P23" s="80" t="n">
         <f aca="false">P22+P26</f>
         <v>4600</v>
       </c>
       <c r="Q23" s="1"/>
-      <c r="R23" s="55" t="n">
+      <c r="R23" s="59" t="n">
         <f aca="false">R22+R26</f>
         <v>13300</v>
       </c>
-      <c r="S23" s="68"/>
+      <c r="S23" s="77"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -2702,7 +2764,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="55"/>
+      <c r="R24" s="59"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -2714,25 +2776,25 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="76"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="85"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="55"/>
+      <c r="R25" s="59"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -2744,40 +2806,40 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
-      <c r="B26" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="80" t="s">
+      <c r="B26" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71" t="n">
+      <c r="C26" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="89"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80" t="n">
         <f aca="false">(E$8 + E$13) * 10</f>
         <v>60</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73" t="n">
+      <c r="G26" s="81"/>
+      <c r="H26" s="82" t="n">
         <f aca="false">(G$8 + G$13) * 10</f>
         <v>80</v>
       </c>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74" t="n">
+      <c r="I26" s="83"/>
+      <c r="J26" s="83" t="n">
         <f aca="false">(I$8 + I$13) * 10</f>
         <v>100</v>
       </c>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73" t="n">
+      <c r="K26" s="81"/>
+      <c r="L26" s="82" t="n">
         <f aca="false">(K$8 + K$13) * 10</f>
         <v>120</v>
       </c>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74" t="n">
+      <c r="M26" s="83"/>
+      <c r="N26" s="83" t="n">
         <f aca="false">(M$8 + M$13) * 10</f>
         <v>140</v>
       </c>
-      <c r="O26" s="74"/>
-      <c r="P26" s="71" t="n">
+      <c r="O26" s="83"/>
+      <c r="P26" s="80" t="n">
         <f aca="false">(O$8 + O$13) * 10</f>
         <v>200</v>
       </c>
@@ -2797,13 +2859,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
-      <c r="B27" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="44" t="s">
+      <c r="B27" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="44"/>
+      <c r="C27" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="43"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2857,16 +2919,16 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
-      <c r="B29" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="82" t="s">
+      <c r="B29" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="82"/>
+      <c r="C29" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="91"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="83" t="s">
-        <v>37</v>
+      <c r="F29" s="92" t="s">
+        <v>38</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2891,14 +2953,14 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
-      <c r="B30" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
+      <c r="B30" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2924,15 +2986,15 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="85" t="n">
+        <v>41</v>
+      </c>
+      <c r="C31" s="94" t="n">
         <v>-100</v>
       </c>
-      <c r="D31" s="85"/>
+      <c r="D31" s="94"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2957,13 +3019,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
-      <c r="B32" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="86" t="n">
+      <c r="B32" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="95" t="n">
         <v>-50</v>
       </c>
-      <c r="D32" s="86"/>
+      <c r="D32" s="95"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2989,15 +3051,17 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
-      <c r="B33" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="86" t="s">
+      <c r="B33" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="86"/>
+      <c r="C33" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="95"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3021,15 +3085,17 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
-      <c r="B34" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="87" t="n">
+      <c r="B34" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="96" t="n">
         <v>-100</v>
       </c>
-      <c r="D34" s="87"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3053,13 +3119,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
-      <c r="B35" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="88"/>
+      <c r="B35" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="97"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3085,11 +3151,11 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
-      <c r="B36" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
+      <c r="B36" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3116,12 +3182,12 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="85"/>
+        <v>52</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="94"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3147,13 +3213,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
-      <c r="B38" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="86" t="n">
+      <c r="B38" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="95" t="n">
         <v>-50</v>
       </c>
-      <c r="D38" s="86"/>
+      <c r="D38" s="95"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3179,13 +3245,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
-      <c r="B39" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="88"/>
+      <c r="B39" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="97"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3734,8 +3800,8 @@
     <mergeCell ref="C39:D39"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3744,890 +3810,890 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="89" width="11.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="98" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="89" width="36.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="89" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="89" width="10.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="89" width="11.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="98" width="36.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="98" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="98" width="10.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="98" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="90"/>
+      <c r="A1" s="99"/>
       <c r="B1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
+        <v>57</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="90"/>
-      <c r="B5" s="94"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="95" t="s">
+      <c r="D5" s="99"/>
+      <c r="E5" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="95" t="s">
+      <c r="H5" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
+      <c r="J5" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="90"/>
-      <c r="B6" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="99" t="n">
+      <c r="A6" s="99"/>
+      <c r="B6" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="108" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="99" t="n">
+      <c r="F6" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="99" t="n">
+      <c r="G6" s="108" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="99" t="n">
+      <c r="H6" s="108" t="n">
         <v>6</v>
       </c>
-      <c r="I6" s="99" t="n">
+      <c r="I6" s="108" t="n">
         <v>7</v>
       </c>
-      <c r="J6" s="99" t="n">
+      <c r="J6" s="108" t="n">
         <v>10</v>
       </c>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="90"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99" t="n">
+      <c r="A7" s="99"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="99" t="n">
+      <c r="H7" s="108" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="99" t="n">
+      <c r="I7" s="108" t="n">
         <v>5</v>
       </c>
-      <c r="J7" s="99" t="n">
+      <c r="J7" s="108" t="n">
         <v>8</v>
       </c>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="90"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
     </row>
     <row r="9" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="90"/>
-      <c r="B9" s="103" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="99" t="n">
+      <c r="E9" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="99" t="n">
+      <c r="F9" s="108" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="99" t="n">
+      <c r="G9" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="99" t="n">
+      <c r="H9" s="108" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="99" t="n">
+      <c r="I9" s="108" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="99" t="n">
+      <c r="J9" s="108" t="n">
         <v>8</v>
       </c>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="90"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="97" t="s">
+      <c r="A10" s="99"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99" t="n">
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="99" t="n">
+      <c r="I10" s="108" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="99" t="n">
+      <c r="J10" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="90"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="105" t="n">
+      <c r="A11" s="99"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="114" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="105" t="n">
+      <c r="F11" s="114" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
+      <c r="G11" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="90"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="90"/>
-      <c r="B13" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99" t="n">
+      <c r="A13" s="99"/>
+      <c r="B13" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99" t="n">
+      <c r="H13" s="108"/>
+      <c r="I13" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="99" t="n">
+      <c r="J13" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="90"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99" t="n">
+      <c r="A14" s="99"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="99" t="n">
+      <c r="I14" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="99" t="n">
+      <c r="J14" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
     </row>
     <row r="16" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="90"/>
-      <c r="B16" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="97" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99" t="n">
+      <c r="D16" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="99" t="n">
+      <c r="J16" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="90"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99" t="n">
+      <c r="A17" s="99"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="99" t="n">
+      <c r="J17" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="90"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="90"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="90"/>
-      <c r="B20" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99" t="n">
+      <c r="A20" s="99"/>
+      <c r="B20" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99" t="n">
+      <c r="I20" s="108"/>
+      <c r="J20" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="90"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99" t="n">
+      <c r="A21" s="99"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99" t="n">
+      <c r="I21" s="108"/>
+      <c r="J21" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="90"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99" t="n">
+      <c r="A22" s="99"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="99" t="n">
+      <c r="J22" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="90"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99" t="n">
+      <c r="A23" s="99"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="99" t="n">
+      <c r="J23" s="108" t="n">
         <v>2</v>
       </c>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="90"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="99" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="99" t="s">
+      <c r="A26" s="99"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="99" t="s">
+      <c r="D26" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="99" t="s">
+      <c r="F26" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="99" t="s">
+      <c r="G26" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
+      <c r="H26" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="90"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="90"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
+      <c r="S31" s="99"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="90"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="99"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4642,7 +4708,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4651,687 +4717,687 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMI29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="89" width="11.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="98" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="89" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="89" width="10.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="89" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="89" width="10.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="14" style="89" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="98" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="98" width="10.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="98" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="98" width="10.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="14" style="98" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1023" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="90"/>
+      <c r="A1" s="99"/>
       <c r="B1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+        <v>93</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="90"/>
-      <c r="B5" s="94"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="110" t="s">
+      <c r="G5" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
+      <c r="I5" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="90"/>
-      <c r="B6" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="90"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="90"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="97" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="90"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
     </row>
     <row r="10" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="90"/>
-      <c r="B10" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="114" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="114" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="114" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="114" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="AMI10" s="89"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="AMI10" s="98"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="90"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="AMI11" s="89"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="AMI11" s="98"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="90"/>
-      <c r="B12" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="90"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="90"/>
-      <c r="B14" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="131"/>
+      <c r="I14" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="90"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="125"/>
-      <c r="I15" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="134"/>
+      <c r="I15" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="90"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="137"/>
+      <c r="I16" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="90"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="90"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="90"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="90"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="90"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="90"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5341,7 +5407,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5350,749 +5416,749 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="89" width="11.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="98" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="44.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="89" width="10.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="89" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="98" width="10.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="98" width="11.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="129"/>
+      <c r="A1" s="138"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="130" t="s">
+      <c r="C1" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="130" t="s">
+      <c r="G1" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="139" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="139" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="143" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="143" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="143" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="143" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="143" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="140"/>
+      <c r="B3" s="145" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="133" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="133" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="133" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" s="147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="140"/>
+      <c r="B4" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="147" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="140"/>
+      <c r="B5" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="147" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="140"/>
+      <c r="B6" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="150" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="143" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="143" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="143" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="143" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="143" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="140"/>
+      <c r="B8" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="130" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="131" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="134" t="n">
+      <c r="G8" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="154" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="140"/>
+      <c r="B9" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="149" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="149" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="150" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="134" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" s="134" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" s="134" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" s="134" t="n">
+    </row>
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="143"/>
+      <c r="J10" s="144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="155"/>
+      <c r="B11" s="148" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="149" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="156" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="141" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="143" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="156"/>
+      <c r="B14" s="145" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="133" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="134" t="n">
+      <c r="J14" s="147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="156"/>
+      <c r="B15" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="133" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="156"/>
+      <c r="B16" s="157" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="158" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="158" t="n">
         <v>3</v>
       </c>
-      <c r="J2" s="135" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="131"/>
-      <c r="B3" s="136" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="137" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="124" t="n">
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="138" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="124" t="n">
+      <c r="E17" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="138" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="124" t="n">
+      <c r="I17" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="160"/>
+      <c r="B18" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="160"/>
+      <c r="B19" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="160"/>
+      <c r="B20" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="160"/>
+      <c r="B21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="160"/>
+      <c r="B22" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="162" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="162" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="162" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="124" t="n">
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="124" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" s="138" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="131"/>
-      <c r="B4" s="136" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="138" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="131"/>
-      <c r="B5" s="136" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="138" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="131"/>
-      <c r="B6" s="139" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="160"/>
+      <c r="B23" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="141" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="131" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="134" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="134" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="134" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="134" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="134" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" s="134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="135" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="131"/>
-      <c r="B8" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="143" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="143" t="s">
+      <c r="J23" s="138" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="160"/>
+      <c r="B24" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="138" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="160"/>
+      <c r="B25" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="143" t="s">
+      <c r="J25" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="144" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="143" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="143" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="143" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="145" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="131"/>
-      <c r="B9" s="139" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="140" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="140" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="141" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="146" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="134" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="134" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="146"/>
-      <c r="B11" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="140" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="141" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-    </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="147" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="132" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="134" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="134" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="135" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="147"/>
-      <c r="B14" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="124" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="124" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" s="138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="147"/>
-      <c r="B15" s="136" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="124" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="147"/>
-      <c r="B16" s="148" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="149" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="149" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="149" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="149" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="129" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="151"/>
-      <c r="B18" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="129" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="151"/>
-      <c r="B19" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="129" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="129" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="151"/>
-      <c r="B20" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="129" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="129" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="151"/>
-      <c r="B21" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="129" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="151"/>
-      <c r="B22" s="152" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="153" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="153" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="153" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="153" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="151"/>
-      <c r="B23" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="129" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="151"/>
-      <c r="B24" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="129" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="151"/>
-      <c r="B25" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="129" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="129" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="138" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="129" t="s">
+      <c r="I27" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="J27" s="129" t="s">
-        <v>129</v>
+      <c r="J27" s="138" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -6104,8 +6170,8 @@
     <mergeCell ref="A17:A25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
